--- a/data/trans_orig/P14C97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C97-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A68C9798-B3E8-42DB-B3B1-9CF500628046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{555F79C5-051A-4199-9DD0-86159172489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7DC90A0-FBD6-479E-B2C0-D5447ED49365}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6413A936-8EF9-404D-8162-6FEB9B379EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="231">
   <si>
     <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2015 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>64,95%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>66,51%</t>
   </si>
   <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>21,18%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>42,8%</t>
+    <t>42,19%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>21,54%</t>
+    <t>17,12%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>48,05%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>42,78%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>0%</t>
@@ -224,13 +224,13 @@
     <t>4,29%</t>
   </si>
   <si>
-    <t>19,04%</t>
+    <t>19,71%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>13,62%</t>
+    <t>13,83%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -245,19 +245,19 @@
     <t>69,0%</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>68,97%</t>
   </si>
   <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>31,27%</t>
@@ -266,19 +266,19 @@
     <t>31,0%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
   </si>
   <si>
     <t>31,03%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -296,82 +296,82 @@
     <t>61,08%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>72,66%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -383,19 +383,19 @@
     <t>71,75%</t>
   </si>
   <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -404,31 +404,31 @@
     <t>9,7%</t>
   </si>
   <si>
-    <t>29,87%</t>
+    <t>31,85%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>23,03%</t>
+    <t>24,01%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -437,76 +437,76 @@
     <t>70,02%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>65,82%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
   </si>
   <si>
     <t>21,09%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>34,06%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>28,52%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>30,03%</t>
+    <t>26,74%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>15,48%</t>
+    <t>14,01%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -515,55 +515,55 @@
     <t>65,53%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>72,43%</t>
   </si>
   <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -581,160 +581,151 @@
     <t>64,28%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>69,2%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
   </si>
   <si>
     <t>20,82%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>28,31%</t>
+    <t>27,06%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>15,96%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
+    <t>35,79%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>18,95%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1149,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504302E5-39B3-493D-B63C-F5BB530C5E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B293E44-BEF0-4881-98EF-7F463673AF21}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2850,10 +2841,10 @@
         <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2912,13 @@
         <v>86866</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H36" s="7">
         <v>190</v>
@@ -2936,13 +2927,13 @@
         <v>211691</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>275</v>
@@ -2951,13 +2942,13 @@
         <v>298557</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2963,13 @@
         <v>36930</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -2987,13 +2978,13 @@
         <v>72472</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -3002,13 +2993,13 @@
         <v>109402</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3014,13 @@
         <v>10645</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -3038,13 +3029,13 @@
         <v>18356</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M38" s="7">
         <v>27</v>
@@ -3053,13 +3044,13 @@
         <v>29001</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3106,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C97-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555F79C5-051A-4199-9DD0-86159172489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{494870CC-723E-4A0E-8E9D-65C1016BAFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6413A936-8EF9-404D-8162-6FEB9B379EA6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{710A186A-2188-43E2-A7B1-A4CA5ECED4C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="231">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2015 (Tasa respuesta: 6,15%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="232">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2016 (Tasa respuesta: 6,15%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>64,95%</t>
   </si>
   <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>66,51%</t>
   </si>
   <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>21,18%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>42,19%</t>
+    <t>41,52%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>17,12%</t>
+    <t>21,38%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>48,05%</t>
   </si>
   <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
   </si>
   <si>
     <t>42,78%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
   </si>
   <si>
     <t>0%</t>
@@ -224,13 +224,13 @@
     <t>4,29%</t>
   </si>
   <si>
-    <t>19,71%</t>
+    <t>17,59%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>13,83%</t>
+    <t>11,72%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -245,19 +245,19 @@
     <t>69,0%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>68,97%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>31,27%</t>
@@ -266,466 +266,469 @@
     <t>31,0%</t>
   </si>
   <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>46,27%</t>
   </si>
   <si>
     <t>20,82%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>27,06%</t>
+    <t>26,26%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>35,79%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>18,95%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B293E44-BEF0-4881-98EF-7F463673AF21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE150F84-05DD-40C5-B7A3-3C5C10E00E80}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1933,13 +1936,13 @@
         <v>6222</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1948,13 +1951,13 @@
         <v>5154</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1963,13 +1966,13 @@
         <v>11376</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,13 +1987,13 @@
         <v>3783</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -1999,13 +2002,13 @@
         <v>6096</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -2014,13 +2017,13 @@
         <v>9879</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,7 +2079,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2091,7 +2094,7 @@
         <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>39</v>
@@ -2103,13 +2106,13 @@
         <v>14207</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2118,13 +2121,13 @@
         <v>20753</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,7 +2148,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2154,13 +2157,13 @@
         <v>1920</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2169,13 +2172,13 @@
         <v>1920</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,7 +2199,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2205,13 +2208,13 @@
         <v>3672</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2220,13 +2223,13 @@
         <v>3672</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,7 +2285,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2294,13 +2297,13 @@
         <v>16014</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2309,13 +2312,13 @@
         <v>19241</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -2324,13 +2327,13 @@
         <v>35255</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2348,13 @@
         <v>4824</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2360,13 +2363,13 @@
         <v>10454</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -2375,13 +2378,13 @@
         <v>15278</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2399,13 @@
         <v>2033</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2411,13 +2414,13 @@
         <v>997</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2426,13 +2429,13 @@
         <v>3030</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2491,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2500,13 +2503,13 @@
         <v>8439</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -2515,13 +2518,13 @@
         <v>35179</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -2530,13 +2533,13 @@
         <v>43617</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2554,13 @@
         <v>4438</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -2566,13 +2569,13 @@
         <v>13389</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2581,13 +2584,13 @@
         <v>17828</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2611,7 @@
         <v>59</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2623,7 +2626,7 @@
         <v>59</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2638,7 +2641,7 @@
         <v>59</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2697,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2706,13 +2709,13 @@
         <v>20463</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>42</v>
@@ -2721,13 +2724,13 @@
         <v>49560</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>62</v>
@@ -2736,13 +2739,13 @@
         <v>70023</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2760,13 @@
         <v>8567</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -2772,13 +2775,13 @@
         <v>14438</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -2787,13 +2790,13 @@
         <v>23005</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2811,13 @@
         <v>2806</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -2823,13 +2826,13 @@
         <v>5359</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -2838,10 +2841,10 @@
         <v>8165</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>204</v>
@@ -2966,10 +2969,10 @@
         <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -2978,13 +2981,13 @@
         <v>72472</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -2993,13 +2996,13 @@
         <v>109402</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3017,13 @@
         <v>10645</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>18</v>
@@ -3029,13 +3032,13 @@
         <v>18356</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>27</v>
@@ -3044,13 +3047,13 @@
         <v>29001</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3109,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
